--- a/appdata/logic.xlsx
+++ b/appdata/logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osalikhov/Documents/works_gss/Test_app/appdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osalikhov/Documents/ФРС/works_gss/Тестирование логики индикации/Indication_SSJnew/appdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AD78DE-2760-4D40-9DD6-C99B0262633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD49462-D02B-B944-9F95-C2817FC5828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7_6_20" sheetId="4" r:id="rId1"/>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA78339-DC67-EA49-A709-2D87D5B8303F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="137" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2025,7 +2025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2132,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA10CBA-8B90-4F45-84BB-D5D29A76B888}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,7 +3003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37886B7-5B9A-5A4D-A096-35D6DF534480}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
